--- a/results_k-fold.xlsx
+++ b/results_k-fold.xlsx
@@ -491,34 +491,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>94.66666666666667</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="D3" s="2">
-        <v>11.92569587999888</v>
+        <v>0.1192569587999888</v>
       </c>
       <c r="E3" s="2">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="2">
-        <v>95</v>
+        <v>0.1118033988749895</v>
       </c>
       <c r="G3" s="2">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H3" s="2">
-        <v>95</v>
+        <v>0.1118033988749895</v>
       </c>
       <c r="I3" s="2">
-        <v>96.66666666666666</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="J3" s="2">
-        <v>7.453559924999302</v>
+        <v>0.07453559924999302</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2162575721740723</v>
+        <v>0.0005766868591308594</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001461280298557939</v>
+        <v>3.89674746282117E-06</v>
       </c>
       <c r="M3" s="2">
         <v>205</v>
@@ -529,34 +529,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>42.85714285714285</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="H4" s="2">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7869348049163818</v>
+        <v>0.002098492813110352</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0716741448151737</v>
+        <v>0.0001911310528404632</v>
       </c>
       <c r="M4" s="2">
         <v>13</v>
@@ -567,34 +567,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>98.82063882063882</v>
+        <v>0.9882063882063882</v>
       </c>
       <c r="D5" s="2">
-        <v>2.637131767075926</v>
+        <v>0.02637131767075926</v>
       </c>
       <c r="E5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G5" s="2">
-        <v>99.4736842105263</v>
+        <v>0.994736842105263</v>
       </c>
       <c r="H5" s="2">
-        <v>99.4736842105263</v>
+        <v>0.01176877882894635</v>
       </c>
       <c r="I5" s="2">
-        <v>98.33333333333334</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="J5" s="2">
-        <v>3.726779962499642</v>
+        <v>0.03726779962499642</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2062887191772461</v>
+        <v>0.0005501032511393229</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04670336543265388</v>
+        <v>0.0001245423078204104</v>
       </c>
       <c r="M5" s="2">
         <v>57</v>
@@ -605,34 +605,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>42.85714285714285</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="H6" s="2">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.8950135707855225</v>
+        <v>0.00238670285542806</v>
       </c>
       <c r="L6" s="2">
-        <v>0.6821953998311302</v>
+        <v>0.001819187732883014</v>
       </c>
       <c r="M6" s="2">
         <v>380</v>
@@ -643,34 +643,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>77.47943722943724</v>
+        <v>0.7747943722943723</v>
       </c>
       <c r="D7" s="2">
-        <v>10.01477077867324</v>
+        <v>0.1001477077867324</v>
       </c>
       <c r="E7" s="2">
-        <v>79.16666666666667</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="F7" s="2">
-        <v>79.16666666666667</v>
+        <v>0.1062295731998497</v>
       </c>
       <c r="G7" s="2">
-        <v>78.33333333333334</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="H7" s="2">
-        <v>78.33333333333334</v>
+        <v>0.05773502691896257</v>
       </c>
       <c r="I7" s="2">
-        <v>86.1111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="J7" s="2">
-        <v>7.081971546656653</v>
+        <v>0.07081971546656653</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1311429023742676</v>
+        <v>0.0003497144063313802</v>
       </c>
       <c r="L7" s="2">
-        <v>0.04057613322415614</v>
+        <v>0.000108203021931083</v>
       </c>
       <c r="M7" s="2">
         <v>790</v>
@@ -681,34 +681,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>76.24837357345096</v>
+        <v>0.7624837357345097</v>
       </c>
       <c r="D8" s="2">
-        <v>19.28565914346627</v>
+        <v>0.1928565914346627</v>
       </c>
       <c r="E8" s="2">
-        <v>81.66666666666667</v>
+        <v>0.8166666666666668</v>
       </c>
       <c r="F8" s="2">
-        <v>81.66666666666667</v>
+        <v>0.1519548544067539</v>
       </c>
       <c r="G8" s="2">
-        <v>79.57738095238096</v>
+        <v>0.7957738095238096</v>
       </c>
       <c r="H8" s="2">
-        <v>79.57738095238096</v>
+        <v>0.184701383451107</v>
       </c>
       <c r="I8" s="2">
-        <v>78.8888888888889</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="J8" s="2">
-        <v>17.19083160751756</v>
+        <v>0.1719083160751756</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0931617259979248</v>
+        <v>0.0002484312693277994</v>
       </c>
       <c r="L8" s="2">
-        <v>0.004503917407976368</v>
+        <v>1.201044642127031E-05</v>
       </c>
       <c r="M8" s="2">
         <v>556</v>
@@ -803,34 +803,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>79.97081659671417</v>
+        <v>0.7997081659671418</v>
       </c>
       <c r="D3" s="2">
-        <v>24.90745222923385</v>
+        <v>0.2490745222923385</v>
       </c>
       <c r="E3" s="2">
-        <v>80.83333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="F3" s="2">
-        <v>80.83333333333333</v>
+        <v>0.2331100121783228</v>
       </c>
       <c r="G3" s="2">
-        <v>86.56493506493506</v>
+        <v>0.8656493506493506</v>
       </c>
       <c r="H3" s="2">
-        <v>86.56493506493506</v>
+        <v>0.1234928536584432</v>
       </c>
       <c r="I3" s="2">
-        <v>85.24999999999999</v>
+        <v>0.8524999999999998</v>
       </c>
       <c r="J3" s="2">
-        <v>17.42942116715935</v>
+        <v>0.1742942116715935</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2193857669830322</v>
+        <v>0.000434427261352539</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001359092386156236</v>
+        <v>2.691272051794527E-06</v>
       </c>
       <c r="M3" s="2">
         <v>56</v>
@@ -841,34 +841,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>96.54950152103852</v>
+        <v>0.9654950152103853</v>
       </c>
       <c r="D4" s="2">
-        <v>5.533073923547059</v>
+        <v>0.05533073923547059</v>
       </c>
       <c r="E4" s="2">
-        <v>96.66666666666666</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="F4" s="2">
-        <v>96.66666666666666</v>
+        <v>0.05432668671002207</v>
       </c>
       <c r="G4" s="2">
-        <v>96.38888888888889</v>
+        <v>0.9638888888888889</v>
       </c>
       <c r="H4" s="2">
-        <v>96.38888888888889</v>
+        <v>0.05520724142875498</v>
       </c>
       <c r="I4" s="2">
-        <v>97.37500000000001</v>
+        <v>0.9737500000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>4.339138739427444</v>
+        <v>0.04339138739427444</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7886834621429444</v>
+        <v>0.001561749429986028</v>
       </c>
       <c r="L4" s="2">
-        <v>0.07386363453656389</v>
+        <v>0.000146264622844681</v>
       </c>
       <c r="M4" s="2">
         <v>19</v>
@@ -879,34 +879,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>99.12885662431941</v>
+        <v>0.9912885662431942</v>
       </c>
       <c r="D5" s="2">
-        <v>1.947935806170416</v>
+        <v>0.01947935806170416</v>
       </c>
       <c r="E5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G5" s="2">
-        <v>99</v>
+        <v>0.99</v>
       </c>
       <c r="H5" s="2">
-        <v>99</v>
+        <v>0.02236067977499792</v>
       </c>
       <c r="I5" s="2">
-        <v>99.33333333333334</v>
+        <v>0.9933333333333334</v>
       </c>
       <c r="J5" s="2">
-        <v>1.490711984999854</v>
+        <v>0.01490711984999855</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2089321613311768</v>
+        <v>0.0004137270521409441</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04650395320553506</v>
+        <v>9.208703605056449E-05</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -917,34 +917,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>38.76923076923077</v>
+        <v>0.3876923076923077</v>
       </c>
       <c r="D6" s="2">
-        <v>0.6880209161537815</v>
+        <v>0.006880209161537815</v>
       </c>
       <c r="E6" s="2">
-        <v>63.33333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F6" s="2">
-        <v>63.33333333333333</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G6" s="2">
-        <v>31.66666666666666</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="H6" s="2">
-        <v>31.66666666666666</v>
+        <v>0.009316949906249115</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5557316303253175</v>
+        <v>0.00110045867391152</v>
       </c>
       <c r="L6" s="2">
-        <v>0.874901191900565</v>
+        <v>0.001732477607723891</v>
       </c>
       <c r="M6" s="2">
         <v>494</v>
@@ -955,34 +955,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>88.24282690743792</v>
+        <v>0.8824282690743791</v>
       </c>
       <c r="D7" s="2">
-        <v>9.576672169696266</v>
+        <v>0.09576672169696267</v>
       </c>
       <c r="E7" s="2">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="F7" s="2">
-        <v>90</v>
+        <v>0.0756912588524373</v>
       </c>
       <c r="G7" s="2">
-        <v>91.94852941176471</v>
+        <v>0.9194852941176471</v>
       </c>
       <c r="H7" s="2">
-        <v>91.94852941176471</v>
+        <v>0.05264546703147324</v>
       </c>
       <c r="I7" s="2">
-        <v>87.45833333333334</v>
+        <v>0.8745833333333334</v>
       </c>
       <c r="J7" s="2">
-        <v>10.0638873554757</v>
+        <v>0.100638873554757</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1264415740966797</v>
+        <v>0.0002503793546468905</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03356961572155263</v>
+        <v>6.647448657733193E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2390</v>
@@ -993,34 +993,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.1023411273956299</v>
+        <v>0.0002026556978131285</v>
       </c>
       <c r="L8" s="2">
-        <v>0.004051581700374451</v>
+        <v>8.022934060147429E-06</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -1115,34 +1115,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>80.70892070892072</v>
+        <v>0.8070892070892072</v>
       </c>
       <c r="D3" s="2">
-        <v>19.09695975032096</v>
+        <v>0.1909695975032096</v>
       </c>
       <c r="E3" s="2">
-        <v>80.83333333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="F3" s="2">
-        <v>80.83333333333333</v>
+        <v>0.190029237516523</v>
       </c>
       <c r="G3" s="2">
-        <v>85.59829059829059</v>
+        <v>0.8559829059829059</v>
       </c>
       <c r="H3" s="2">
-        <v>85.59829059829059</v>
+        <v>0.1350352967766466</v>
       </c>
       <c r="I3" s="2">
-        <v>85.625</v>
+        <v>0.85625</v>
       </c>
       <c r="J3" s="2">
-        <v>14.25219281373923</v>
+        <v>0.1425219281373923</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2195148468017578</v>
+        <v>0.0005853729248046875</v>
       </c>
       <c r="L3" s="2">
-        <v>0.003777873750787881</v>
+        <v>1.007433000210102E-05</v>
       </c>
       <c r="M3" s="2">
         <v>102</v>
@@ -1153,34 +1153,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>92.14803809235187</v>
+        <v>0.9214803809235187</v>
       </c>
       <c r="D4" s="2">
-        <v>5.64454055010017</v>
+        <v>0.0564454055010017</v>
       </c>
       <c r="E4" s="2">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="F4" s="2">
-        <v>92.5</v>
+        <v>0.05432668671002208</v>
       </c>
       <c r="G4" s="2">
-        <v>91.61616161616163</v>
+        <v>0.9161616161616163</v>
       </c>
       <c r="H4" s="2">
-        <v>91.61616161616163</v>
+        <v>0.05787182428537865</v>
       </c>
       <c r="I4" s="2">
-        <v>94.29166666666667</v>
+        <v>0.9429166666666667</v>
       </c>
       <c r="J4" s="2">
-        <v>4.094690837603684</v>
+        <v>0.04094690837603684</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7774117946624756</v>
+        <v>0.002073098119099935</v>
       </c>
       <c r="L4" s="2">
-        <v>0.06953002340099472</v>
+        <v>0.0001854133957359859</v>
       </c>
       <c r="M4" s="2">
         <v>19</v>
@@ -1191,34 +1191,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2067123889923096</v>
+        <v>0.0005512330373128255</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04530152152590272</v>
+        <v>0.0001208040574024073</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -1229,34 +1229,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>39.38461538461539</v>
+        <v>0.3938461538461538</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8426500884694864</v>
+        <v>0.008426500884694864</v>
       </c>
       <c r="E6" s="2">
-        <v>64.99999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>64.99999999999999</v>
+        <v>0.0228217732293819</v>
       </c>
       <c r="G6" s="2">
-        <v>32.49999999999999</v>
+        <v>0.325</v>
       </c>
       <c r="H6" s="2">
-        <v>32.49999999999999</v>
+        <v>0.01141088661469095</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.9968836784362793</v>
+        <v>0.002658356475830078</v>
       </c>
       <c r="L6" s="2">
-        <v>0.8491950821689425</v>
+        <v>0.00226452021911718</v>
       </c>
       <c r="M6" s="2">
         <v>690</v>
@@ -1267,34 +1267,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>94.81835811247576</v>
+        <v>0.9481835811247576</v>
       </c>
       <c r="D7" s="2">
-        <v>7.37979015925924</v>
+        <v>0.0737979015925924</v>
       </c>
       <c r="E7" s="2">
-        <v>95.83333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F7" s="2">
-        <v>95.83333333333334</v>
+        <v>0.05892556509887897</v>
       </c>
       <c r="G7" s="2">
-        <v>97.30994152046783</v>
+        <v>0.9730994152046784</v>
       </c>
       <c r="H7" s="2">
-        <v>97.30994152046783</v>
+        <v>0.03775215034287585</v>
       </c>
       <c r="I7" s="2">
-        <v>93.75</v>
+        <v>0.9375</v>
       </c>
       <c r="J7" s="2">
-        <v>8.838834764831844</v>
+        <v>0.08838834764831845</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1209628582000732</v>
+        <v>0.000322567621866862</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03503108173273088</v>
+        <v>9.341621795394901E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2403</v>
@@ -1305,34 +1305,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09285264015197754</v>
+        <v>0.0002476070404052734</v>
       </c>
       <c r="L8" s="2">
-        <v>0.003933990117832811</v>
+        <v>1.049064031422083E-05</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -1427,34 +1427,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>89.87557850147608</v>
+        <v>0.8987557850147608</v>
       </c>
       <c r="D3" s="2">
-        <v>8.131587154536678</v>
+        <v>0.08131587154536679</v>
       </c>
       <c r="E3" s="2">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="F3" s="2">
-        <v>90</v>
+        <v>0.08122328620674138</v>
       </c>
       <c r="G3" s="2">
-        <v>90.42857142857143</v>
+        <v>0.9042857142857142</v>
       </c>
       <c r="H3" s="2">
-        <v>90.42857142857143</v>
+        <v>0.07041241483762155</v>
       </c>
       <c r="I3" s="2">
-        <v>92</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>6.497862896539313</v>
+        <v>0.06497862896539314</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2203822135925293</v>
+        <v>0.0004364004229555036</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001966841456095759</v>
+        <v>3.894735556625266E-06</v>
       </c>
       <c r="M3" s="2">
         <v>75</v>
@@ -1465,34 +1465,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>87.30002730002731</v>
+        <v>0.8730002730002731</v>
       </c>
       <c r="D4" s="2">
-        <v>18.64955962643088</v>
+        <v>0.1864955962643088</v>
       </c>
       <c r="E4" s="2">
-        <v>90.83333333333334</v>
+        <v>0.9083333333333334</v>
       </c>
       <c r="F4" s="2">
-        <v>90.83333333333334</v>
+        <v>0.1330726618555942</v>
       </c>
       <c r="G4" s="2">
-        <v>94.81818181818183</v>
+        <v>0.9481818181818182</v>
       </c>
       <c r="H4" s="2">
-        <v>94.81818181818183</v>
+        <v>0.07396671129748364</v>
       </c>
       <c r="I4" s="2">
-        <v>87.22222222222221</v>
+        <v>0.8722222222222221</v>
       </c>
       <c r="J4" s="2">
-        <v>18.17269692644014</v>
+        <v>0.1817269692644014</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7814530372619629</v>
+        <v>0.001547431756954382</v>
       </c>
       <c r="L4" s="2">
-        <v>0.06952881541102927</v>
+        <v>0.0001376808225960976</v>
       </c>
       <c r="M4" s="2">
         <v>17</v>
@@ -1503,34 +1503,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.209236478805542</v>
+        <v>0.0004143296610010733</v>
       </c>
       <c r="L5" s="2">
-        <v>0.05014283493395386</v>
+        <v>9.929274244347298E-05</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -1541,34 +1541,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>38.76923076923077</v>
+        <v>0.3876923076923077</v>
       </c>
       <c r="D6" s="2">
-        <v>0.6880209161537815</v>
+        <v>0.006880209161537815</v>
       </c>
       <c r="E6" s="2">
-        <v>63.33333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F6" s="2">
-        <v>63.33333333333333</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G6" s="2">
-        <v>31.66666666666666</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="H6" s="2">
-        <v>31.66666666666666</v>
+        <v>0.009316949906249115</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5543958663940429</v>
+        <v>0.001097813596819887</v>
       </c>
       <c r="L6" s="2">
-        <v>0.8574402554502331</v>
+        <v>0.001697901495941056</v>
       </c>
       <c r="M6" s="2">
         <v>907</v>
@@ -1579,34 +1579,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>94.38378362097527</v>
+        <v>0.9438378362097527</v>
       </c>
       <c r="D7" s="2">
-        <v>4.01465849351502</v>
+        <v>0.0401465849351502</v>
       </c>
       <c r="E7" s="2">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="F7" s="2">
-        <v>95</v>
+        <v>0.03486083443891984</v>
       </c>
       <c r="G7" s="2">
-        <v>95.86111111111111</v>
+        <v>0.9586111111111112</v>
       </c>
       <c r="H7" s="2">
-        <v>95.86111111111111</v>
+        <v>0.03307407861038496</v>
       </c>
       <c r="I7" s="2">
-        <v>93.5</v>
+        <v>0.9349999999999999</v>
       </c>
       <c r="J7" s="2">
-        <v>4.629814811111258</v>
+        <v>0.04629814811111257</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1216744422912598</v>
+        <v>0.0002409394896856629</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03446190969371899</v>
+        <v>6.824140533409702E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2283</v>
@@ -1617,34 +1617,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.08973951339721679</v>
+        <v>0.000177702006727162</v>
       </c>
       <c r="L8" s="2">
-        <v>0.002713837592433069</v>
+        <v>5.373935826600138E-06</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -1739,34 +1739,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2236614227294922</v>
+        <v>0.000442893906395034</v>
       </c>
       <c r="L3" s="2">
-        <v>0.003209616702658662</v>
+        <v>6.355676638928044E-06</v>
       </c>
       <c r="M3" s="2">
         <v>219</v>
@@ -1777,34 +1777,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>85.83203368188406</v>
+        <v>0.8583203368188406</v>
       </c>
       <c r="D4" s="2">
-        <v>6.419630390727072</v>
+        <v>0.06419630390727071</v>
       </c>
       <c r="E4" s="2">
-        <v>86.66666666666669</v>
+        <v>0.8666666666666668</v>
       </c>
       <c r="F4" s="2">
-        <v>86.66666666666669</v>
+        <v>0.06180165405913054</v>
       </c>
       <c r="G4" s="2">
-        <v>85.35858585858585</v>
+        <v>0.8535858585858586</v>
       </c>
       <c r="H4" s="2">
-        <v>85.35858585858585</v>
+        <v>0.05800126305229624</v>
       </c>
       <c r="I4" s="2">
-        <v>90.44117647058823</v>
+        <v>0.9044117647058822</v>
       </c>
       <c r="J4" s="2">
-        <v>4.281549521636805</v>
+        <v>0.04281549521636805</v>
       </c>
       <c r="K4" s="2">
-        <v>0.8193694114685058</v>
+        <v>0.001622513686076249</v>
       </c>
       <c r="L4" s="2">
-        <v>0.08810393044152952</v>
+        <v>0.0001744632285970881</v>
       </c>
       <c r="M4" s="2">
         <v>21</v>
@@ -1815,34 +1815,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>95.38949938949939</v>
+        <v>0.9538949938949939</v>
       </c>
       <c r="D5" s="2">
-        <v>7.706953516836965</v>
+        <v>0.07706953516836965</v>
       </c>
       <c r="E5" s="2">
-        <v>95.83333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F5" s="2">
-        <v>95.83333333333334</v>
+        <v>0.0721687836487032</v>
       </c>
       <c r="G5" s="2">
-        <v>95.8080808080808</v>
+        <v>0.9580808080808081</v>
       </c>
       <c r="H5" s="2">
-        <v>95.8080808080808</v>
+        <v>0.07912547459913087</v>
       </c>
       <c r="I5" s="2">
-        <v>96.21848739495798</v>
+        <v>0.9621848739495797</v>
       </c>
       <c r="J5" s="2">
-        <v>5.429768060218524</v>
+        <v>0.05429768060218523</v>
       </c>
       <c r="K5" s="2">
-        <v>0.1852316379547119</v>
+        <v>0.0003667953226825979</v>
       </c>
       <c r="L5" s="2">
-        <v>0.000493533352098844</v>
+        <v>9.772937665323644E-07</v>
       </c>
       <c r="M5" s="2">
         <v>37</v>
@@ -1853,34 +1853,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>40.87804878048781</v>
+        <v>0.4087804878048781</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8015452061051189</v>
+        <v>0.008015452061051189</v>
       </c>
       <c r="E6" s="2">
-        <v>69.16666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="F6" s="2">
-        <v>69.16666666666667</v>
+        <v>0.02282177322938196</v>
       </c>
       <c r="G6" s="2">
-        <v>34.58333333333334</v>
+        <v>0.3458333333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>34.58333333333334</v>
+        <v>0.01141088661469098</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.4676354885101318</v>
+        <v>0.0009260108683368947</v>
       </c>
       <c r="L6" s="2">
-        <v>0.6578757374055596</v>
+        <v>0.001302724232486257</v>
       </c>
       <c r="M6" s="2">
         <v>496</v>
@@ -1891,34 +1891,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>82.54353693546192</v>
+        <v>0.8254353693546191</v>
       </c>
       <c r="D7" s="2">
-        <v>6.44508635338365</v>
+        <v>0.0644508635338365</v>
       </c>
       <c r="E7" s="2">
-        <v>83.33333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F7" s="2">
-        <v>83.33333333333333</v>
+        <v>0.06588078458684123</v>
       </c>
       <c r="G7" s="2">
-        <v>82.9112554112554</v>
+        <v>0.829112554112554</v>
       </c>
       <c r="H7" s="2">
-        <v>82.9112554112554</v>
+        <v>0.04708078311453687</v>
       </c>
       <c r="I7" s="2">
-        <v>87.94117647058822</v>
+        <v>0.8794117647058822</v>
       </c>
       <c r="J7" s="2">
-        <v>4.900888363083249</v>
+        <v>0.04900888363083249</v>
       </c>
       <c r="K7" s="2">
-        <v>0.128117561340332</v>
+        <v>0.0002536981412679842</v>
       </c>
       <c r="L7" s="2">
-        <v>0.036433867242999</v>
+        <v>7.214627176831487E-05</v>
       </c>
       <c r="M7" s="2">
         <v>1141</v>
@@ -1929,34 +1929,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>93.59974747474749</v>
+        <v>0.9359974747474749</v>
       </c>
       <c r="D8" s="2">
-        <v>7.460423096363737</v>
+        <v>0.07460423096363737</v>
       </c>
       <c r="E8" s="2">
-        <v>94.16666666666667</v>
+        <v>0.9416666666666668</v>
       </c>
       <c r="F8" s="2">
-        <v>94.16666666666667</v>
+        <v>0.06972166887783962</v>
       </c>
       <c r="G8" s="2">
-        <v>93.23863636363636</v>
+        <v>0.9323863636363636</v>
       </c>
       <c r="H8" s="2">
-        <v>93.23863636363636</v>
+        <v>0.07565570802672325</v>
       </c>
       <c r="I8" s="2">
-        <v>95.18382352941177</v>
+        <v>0.9518382352941177</v>
       </c>
       <c r="J8" s="2">
-        <v>5.453706756651227</v>
+        <v>0.05453706756651228</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09188179969787598</v>
+        <v>0.0001819441578175762</v>
       </c>
       <c r="L8" s="2">
-        <v>0.00208649662204253</v>
+        <v>4.131676479292139E-06</v>
       </c>
       <c r="M8" s="2">
         <v>765</v>
@@ -2051,34 +2051,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>93.2121212121212</v>
+        <v>0.932121212121212</v>
       </c>
       <c r="D3" s="2">
-        <v>15.17815839272585</v>
+        <v>0.1517815839272585</v>
       </c>
       <c r="E3" s="2">
-        <v>94.16666666666667</v>
+        <v>0.9416666666666668</v>
       </c>
       <c r="F3" s="2">
-        <v>94.16666666666667</v>
+        <v>0.1304372986874877</v>
       </c>
       <c r="G3" s="2">
-        <v>93.1111111111111</v>
+        <v>0.931111111111111</v>
       </c>
       <c r="H3" s="2">
-        <v>93.1111111111111</v>
+        <v>0.1540402384499855</v>
       </c>
       <c r="I3" s="2">
-        <v>93.88888888888889</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="J3" s="2">
-        <v>13.66485986249872</v>
+        <v>0.1366485986249872</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2160619258880615</v>
+        <v>0.0005761651357014974</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001870418830141845</v>
+        <v>4.987783547044919E-06</v>
       </c>
       <c r="M3" s="2">
         <v>186</v>
@@ -2089,34 +2089,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>61.30115753811406</v>
+        <v>0.6130115753811406</v>
       </c>
       <c r="D4" s="2">
-        <v>20.6987349542139</v>
+        <v>0.206987349542139</v>
       </c>
       <c r="E4" s="2">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="2">
-        <v>75</v>
+        <v>0.1284252917285204</v>
       </c>
       <c r="G4" s="2">
-        <v>61.19607843137255</v>
+        <v>0.6119607843137255</v>
       </c>
       <c r="H4" s="2">
-        <v>61.19607843137255</v>
+        <v>0.2240685684687274</v>
       </c>
       <c r="I4" s="2">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="2">
-        <v>20.16521268097949</v>
+        <v>0.2016521268097949</v>
       </c>
       <c r="K4" s="2">
-        <v>0.8077450275421143</v>
+        <v>0.002153986740112305</v>
       </c>
       <c r="L4" s="2">
-        <v>0.08770203048568587</v>
+        <v>0.0002338720812951623</v>
       </c>
       <c r="M4" s="2">
         <v>21</v>
@@ -2127,34 +2127,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2082133293151855</v>
+        <v>0.0005552355448404948</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04757547184921868</v>
+        <v>0.0001268679249312498</v>
       </c>
       <c r="M5" s="2">
         <v>58</v>
@@ -2165,34 +2165,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>42.85714285714285</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="H6" s="2">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.9269933223724365</v>
+        <v>0.002471982192993164</v>
       </c>
       <c r="L6" s="2">
-        <v>0.7664658718494844</v>
+        <v>0.002043908991598625</v>
       </c>
       <c r="M6" s="2">
         <v>681</v>
@@ -2203,34 +2203,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>77.47943722943724</v>
+        <v>0.7747943722943723</v>
       </c>
       <c r="D7" s="2">
-        <v>10.01477077867324</v>
+        <v>0.1001477077867324</v>
       </c>
       <c r="E7" s="2">
-        <v>79.16666666666667</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="F7" s="2">
-        <v>79.16666666666667</v>
+        <v>0.1062295731998497</v>
       </c>
       <c r="G7" s="2">
-        <v>78.33333333333334</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="H7" s="2">
-        <v>78.33333333333334</v>
+        <v>0.05773502691896257</v>
       </c>
       <c r="I7" s="2">
-        <v>86.1111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="J7" s="2">
-        <v>7.081971546656653</v>
+        <v>0.07081971546656653</v>
       </c>
       <c r="K7" s="2">
-        <v>0.141618537902832</v>
+        <v>0.0003776494344075521</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0470150772853566</v>
+        <v>0.0001253735394276176</v>
       </c>
       <c r="M7" s="2">
         <v>740</v>
@@ -2241,34 +2241,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>77.37289610973821</v>
+        <v>0.7737289610973821</v>
       </c>
       <c r="D8" s="2">
-        <v>19.70618902708973</v>
+        <v>0.1970618902708973</v>
       </c>
       <c r="E8" s="2">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="F8" s="2">
-        <v>82.5</v>
+        <v>0.1542229626943479</v>
       </c>
       <c r="G8" s="2">
-        <v>80.61904761904761</v>
+        <v>0.8061904761904761</v>
       </c>
       <c r="H8" s="2">
-        <v>80.61904761904761</v>
+        <v>0.185145649596813</v>
       </c>
       <c r="I8" s="2">
-        <v>80.55555555555556</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="J8" s="2">
-        <v>18.10889557000736</v>
+        <v>0.1810889557000736</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09513745307922364</v>
+        <v>0.0002536998748779297</v>
       </c>
       <c r="L8" s="2">
-        <v>0.004460177306386185</v>
+        <v>1.189380615036316E-05</v>
       </c>
       <c r="M8" s="2">
         <v>589</v>
@@ -2363,34 +2363,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>98.94505494505495</v>
+        <v>0.9894505494505494</v>
       </c>
       <c r="D3" s="2">
-        <v>2.358928855384395</v>
+        <v>0.02358928855384395</v>
       </c>
       <c r="E3" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F3" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G3" s="2">
-        <v>99.44444444444444</v>
+        <v>0.9944444444444445</v>
       </c>
       <c r="H3" s="2">
-        <v>99.44444444444444</v>
+        <v>0.01242259987499884</v>
       </c>
       <c r="I3" s="2">
-        <v>98.57142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="J3" s="2">
-        <v>3.194382824999698</v>
+        <v>0.03194382824999698</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2220021724700928</v>
+        <v>0.0004396082623170154</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001977908243400505</v>
+        <v>3.916649986931693E-06</v>
       </c>
       <c r="M3" s="2">
         <v>178</v>
@@ -2401,34 +2401,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>85.80072419264917</v>
+        <v>0.8580072419264917</v>
       </c>
       <c r="D4" s="2">
-        <v>5.63339200344937</v>
+        <v>0.0563339200344937</v>
       </c>
       <c r="E4" s="2">
-        <v>86.66666666666669</v>
+        <v>0.8666666666666668</v>
       </c>
       <c r="F4" s="2">
-        <v>86.66666666666669</v>
+        <v>0.05432668671002206</v>
       </c>
       <c r="G4" s="2">
-        <v>85.19696969696969</v>
+        <v>0.8519696969696969</v>
       </c>
       <c r="H4" s="2">
-        <v>85.19696969696969</v>
+        <v>0.04846590539036304</v>
       </c>
       <c r="I4" s="2">
-        <v>90.44117647058823</v>
+        <v>0.9044117647058822</v>
       </c>
       <c r="J4" s="2">
-        <v>3.667267893981616</v>
+        <v>0.03667267893981616</v>
       </c>
       <c r="K4" s="2">
-        <v>0.783781623840332</v>
+        <v>0.001552042819485806</v>
       </c>
       <c r="L4" s="2">
-        <v>0.07134514332986108</v>
+        <v>0.0001412775115442794</v>
       </c>
       <c r="M4" s="2">
         <v>25</v>
@@ -2439,34 +2439,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>98.94505494505495</v>
+        <v>0.9894505494505494</v>
       </c>
       <c r="D5" s="2">
-        <v>2.358928855384395</v>
+        <v>0.02358928855384395</v>
       </c>
       <c r="E5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G5" s="2">
-        <v>99.44444444444444</v>
+        <v>0.9944444444444445</v>
       </c>
       <c r="H5" s="2">
-        <v>99.44444444444444</v>
+        <v>0.01242259987499884</v>
       </c>
       <c r="I5" s="2">
-        <v>98.57142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="J5" s="2">
-        <v>3.194382824999698</v>
+        <v>0.03194382824999698</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2082728862762451</v>
+        <v>0.0004124215569826636</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04745335808028546</v>
+        <v>9.396704570353556E-05</v>
       </c>
       <c r="M5" s="2">
         <v>53</v>
@@ -2477,34 +2477,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>40.87804878048781</v>
+        <v>0.4087804878048781</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8015452061051189</v>
+        <v>0.008015452061051189</v>
       </c>
       <c r="E6" s="2">
-        <v>69.16666666666667</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="F6" s="2">
-        <v>69.16666666666667</v>
+        <v>0.02282177322938196</v>
       </c>
       <c r="G6" s="2">
-        <v>34.58333333333334</v>
+        <v>0.3458333333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>34.58333333333334</v>
+        <v>0.01141088661469098</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5012437343597412</v>
+        <v>0.0009925618502173094</v>
       </c>
       <c r="L6" s="2">
-        <v>0.7392577647686132</v>
+        <v>0.001463876761918046</v>
       </c>
       <c r="M6" s="2">
         <v>627</v>
@@ -2515,34 +2515,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>82.54353693546192</v>
+        <v>0.8254353693546191</v>
       </c>
       <c r="D7" s="2">
-        <v>6.44508635338365</v>
+        <v>0.0644508635338365</v>
       </c>
       <c r="E7" s="2">
-        <v>83.33333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F7" s="2">
-        <v>83.33333333333333</v>
+        <v>0.06588078458684123</v>
       </c>
       <c r="G7" s="2">
-        <v>82.9112554112554</v>
+        <v>0.829112554112554</v>
       </c>
       <c r="H7" s="2">
-        <v>82.9112554112554</v>
+        <v>0.04708078311453687</v>
       </c>
       <c r="I7" s="2">
-        <v>87.94117647058822</v>
+        <v>0.8794117647058822</v>
       </c>
       <c r="J7" s="2">
-        <v>4.900888363083249</v>
+        <v>0.04900888363083249</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1362640857696533</v>
+        <v>0.0002698298728111947</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03055130155239478</v>
+        <v>6.049762683642531E-05</v>
       </c>
       <c r="M7" s="2">
         <v>1302</v>
@@ -2553,34 +2553,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>93.59974747474749</v>
+        <v>0.9359974747474749</v>
       </c>
       <c r="D8" s="2">
-        <v>7.460423096363737</v>
+        <v>0.07460423096363737</v>
       </c>
       <c r="E8" s="2">
-        <v>94.16666666666667</v>
+        <v>0.9416666666666668</v>
       </c>
       <c r="F8" s="2">
-        <v>94.16666666666667</v>
+        <v>0.06972166887783962</v>
       </c>
       <c r="G8" s="2">
-        <v>93.23863636363636</v>
+        <v>0.9323863636363636</v>
       </c>
       <c r="H8" s="2">
-        <v>93.23863636363636</v>
+        <v>0.07565570802672325</v>
       </c>
       <c r="I8" s="2">
-        <v>95.18382352941177</v>
+        <v>0.9518382352941177</v>
       </c>
       <c r="J8" s="2">
-        <v>5.453706756651227</v>
+        <v>0.05453706756651228</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09412631988525391</v>
+        <v>0.0001863887522480275</v>
       </c>
       <c r="L8" s="2">
-        <v>0.006485382399693315</v>
+        <v>1.284234138553132E-05</v>
       </c>
       <c r="M8" s="2">
         <v>769</v>
@@ -2675,34 +2675,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>79.87450888082849</v>
+        <v>0.7987450888082849</v>
       </c>
       <c r="D3" s="2">
-        <v>16.96755115869653</v>
+        <v>0.1696755115869653</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="2">
-        <v>80</v>
+        <v>0.1702734728475213</v>
       </c>
       <c r="G3" s="2">
-        <v>84.30905695611578</v>
+        <v>0.8430905695611578</v>
       </c>
       <c r="H3" s="2">
-        <v>84.30905695611578</v>
+        <v>0.1209040367906145</v>
       </c>
       <c r="I3" s="2">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J3" s="2">
-        <v>12.77051046356409</v>
+        <v>0.1277051046356409</v>
       </c>
       <c r="K3" s="2">
-        <v>0.217613697052002</v>
+        <v>0.0005803031921386718</v>
       </c>
       <c r="L3" s="2">
-        <v>0.00187182070388377</v>
+        <v>4.991521877023387E-06</v>
       </c>
       <c r="M3" s="2">
         <v>61</v>
@@ -2713,34 +2713,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7676403045654296</v>
+        <v>0.002047040812174479</v>
       </c>
       <c r="L4" s="2">
-        <v>0.06168882773890436</v>
+        <v>0.0001645035406370783</v>
       </c>
       <c r="M4" s="2">
         <v>283</v>
@@ -2751,34 +2751,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2046419620513916</v>
+        <v>0.000545711898803711</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04692839167501982</v>
+        <v>0.0001251423778000529</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -2789,34 +2789,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>66.66666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F6" s="2">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>33.33333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.9377417087554931</v>
+        <v>0.002500644556681315</v>
       </c>
       <c r="L6" s="2">
-        <v>0.7631853000242708</v>
+        <v>0.002035160800064722</v>
       </c>
       <c r="M6" s="2">
         <v>476</v>
@@ -2827,34 +2827,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>97.98319327731093</v>
+        <v>0.9798319327731093</v>
       </c>
       <c r="D7" s="2">
-        <v>4.509716929411344</v>
+        <v>0.04509716929411344</v>
       </c>
       <c r="E7" s="2">
-        <v>98.33333333333331</v>
+        <v>0.9833333333333332</v>
       </c>
       <c r="F7" s="2">
-        <v>98.33333333333331</v>
+        <v>0.03726779962499651</v>
       </c>
       <c r="G7" s="2">
-        <v>98.88888888888889</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="H7" s="2">
-        <v>98.88888888888889</v>
+        <v>0.02484519974999767</v>
       </c>
       <c r="I7" s="2">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J7" s="2">
-        <v>5.590169943749475</v>
+        <v>0.05590169943749474</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1240219116210937</v>
+        <v>0.00033072509765625</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03570617330684072</v>
+        <v>9.521646215157526E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2174</v>
@@ -2865,34 +2865,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09078192710876465</v>
+        <v>0.0002420851389567057</v>
       </c>
       <c r="L8" s="2">
-        <v>0.001402841426271014</v>
+        <v>3.740910470056038E-06</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -2987,34 +2987,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2223368644714356</v>
+        <v>0.0004402710187553179</v>
       </c>
       <c r="L3" s="2">
-        <v>0.006016209525581551</v>
+        <v>1.19132861892704E-05</v>
       </c>
       <c r="M3" s="2">
         <v>256</v>
@@ -3025,34 +3025,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>97.26755218216319</v>
+        <v>0.9726755218216319</v>
       </c>
       <c r="D4" s="2">
-        <v>6.109939065654078</v>
+        <v>0.06109939065654078</v>
       </c>
       <c r="E4" s="2">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="F4" s="2">
-        <v>97.5</v>
+        <v>0.05590169943749474</v>
       </c>
       <c r="G4" s="2">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="2">
-        <v>97</v>
+        <v>0.06708203932499369</v>
       </c>
       <c r="I4" s="2">
-        <v>98.23529411764707</v>
+        <v>0.9823529411764707</v>
       </c>
       <c r="J4" s="2">
-        <v>3.946002313234929</v>
+        <v>0.03946002313234929</v>
       </c>
       <c r="K4" s="2">
-        <v>0.8156322479248047</v>
+        <v>0.001615113362227336</v>
       </c>
       <c r="L4" s="2">
-        <v>0.08159183025284047</v>
+        <v>0.000161567980698694</v>
       </c>
       <c r="M4" s="2">
         <v>19</v>
@@ -3063,34 +3063,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>97.8901098901099</v>
+        <v>0.978901098901099</v>
       </c>
       <c r="D5" s="2">
-        <v>2.88908601760967</v>
+        <v>0.02889086017609669</v>
       </c>
       <c r="E5" s="2">
-        <v>98.33333333333334</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="F5" s="2">
-        <v>98.33333333333334</v>
+        <v>0.0228217732293819</v>
       </c>
       <c r="G5" s="2">
-        <v>98.88888888888889</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="H5" s="2">
-        <v>98.88888888888889</v>
+        <v>0.01521451548625462</v>
       </c>
       <c r="I5" s="2">
-        <v>97.14285714285715</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="J5" s="2">
-        <v>3.912303982179756</v>
+        <v>0.03912303982179756</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2086060523986816</v>
+        <v>0.0004130812918785775</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04835366743561128</v>
+        <v>9.574983650616095E-05</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -3101,34 +3101,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>41.46341463414635</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="D6" s="2">
-        <v>6.206335383118182E-15</v>
+        <v>6.206335383118183E-17</v>
       </c>
       <c r="E6" s="2">
-        <v>70.83333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F6" s="2">
-        <v>70.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>35.41666666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="H6" s="2">
-        <v>35.41666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5034257411956787</v>
+        <v>0.0009968826558330271</v>
       </c>
       <c r="L6" s="2">
-        <v>0.7501828343785248</v>
+        <v>0.001485510563125792</v>
       </c>
       <c r="M6" s="2">
         <v>471</v>
@@ -3139,34 +3139,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>78.4020874020874</v>
+        <v>0.7840208740208741</v>
       </c>
       <c r="D7" s="2">
-        <v>18.01305226004005</v>
+        <v>0.1801305226004005</v>
       </c>
       <c r="E7" s="2">
-        <v>86.66666666666666</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="F7" s="2">
-        <v>86.66666666666666</v>
+        <v>0.09947780321927768</v>
       </c>
       <c r="G7" s="2">
-        <v>92.56594549615144</v>
+        <v>0.9256594549615145</v>
       </c>
       <c r="H7" s="2">
-        <v>92.56594549615144</v>
+        <v>0.05169370264856048</v>
       </c>
       <c r="I7" s="2">
-        <v>77.14285714285715</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="J7" s="2">
-        <v>17.05333769473332</v>
+        <v>0.1705333769473332</v>
       </c>
       <c r="K7" s="2">
-        <v>0.12563796043396</v>
+        <v>0.0002487880404632871</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03795401431599669</v>
+        <v>7.515646399207265E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2394</v>
@@ -3177,34 +3177,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>96.83516483516483</v>
+        <v>0.9683516483516483</v>
       </c>
       <c r="D8" s="2">
-        <v>2.88908601760967</v>
+        <v>0.02889086017609669</v>
       </c>
       <c r="E8" s="2">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="F8" s="2">
-        <v>97.5</v>
+        <v>0.0228217732293819</v>
       </c>
       <c r="G8" s="2">
-        <v>98.33333333333334</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="H8" s="2">
-        <v>98.33333333333334</v>
+        <v>0.01521451548625462</v>
       </c>
       <c r="I8" s="2">
-        <v>95.71428571428571</v>
+        <v>0.9571428571428571</v>
       </c>
       <c r="J8" s="2">
-        <v>3.912303982179757</v>
+        <v>0.03912303982179757</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09262967109680176</v>
+        <v>0.0001834250912807956</v>
       </c>
       <c r="L8" s="2">
-        <v>0.002869970432067482</v>
+        <v>5.683109766470262E-06</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -3299,34 +3299,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.219374942779541</v>
+        <v>0.0005849998474121093</v>
       </c>
       <c r="L3" s="2">
-        <v>0.006352940558425817</v>
+        <v>1.694117482246884E-05</v>
       </c>
       <c r="M3" s="2">
         <v>285</v>
@@ -3337,34 +3337,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.807795238494873</v>
+        <v>0.002154120635986328</v>
       </c>
       <c r="L4" s="2">
-        <v>0.08639671758320351</v>
+        <v>0.0002303912468885427</v>
       </c>
       <c r="M4" s="2">
         <v>22</v>
@@ -3375,34 +3375,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2054107189178467</v>
+        <v>0.0005477619171142578</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0448141189168432</v>
+        <v>0.0001195043171115819</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -3413,34 +3413,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>66.66666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F6" s="2">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>33.33333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.9667050838470459</v>
+        <v>0.002577880223592123</v>
       </c>
       <c r="L6" s="2">
-        <v>0.7898271723444193</v>
+        <v>0.002106205792918452</v>
       </c>
       <c r="M6" s="2">
         <v>588</v>
@@ -3451,34 +3451,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>91.52194211017741</v>
+        <v>0.915219421101774</v>
       </c>
       <c r="D7" s="2">
-        <v>9.189876228928547</v>
+        <v>0.09189876228928547</v>
       </c>
       <c r="E7" s="2">
-        <v>93.33333333333333</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="F7" s="2">
-        <v>93.33333333333333</v>
+        <v>0.06972166887783962</v>
       </c>
       <c r="G7" s="2">
-        <v>95.7777777777778</v>
+        <v>0.9577777777777779</v>
       </c>
       <c r="H7" s="2">
-        <v>95.7777777777778</v>
+        <v>0.04260064336151292</v>
       </c>
       <c r="I7" s="2">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J7" s="2">
-        <v>10.45825033167594</v>
+        <v>0.1045825033167594</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1215041160583496</v>
+        <v>0.000324010976155599</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03335884962306661</v>
+        <v>8.895693232817763E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2395</v>
@@ -3489,34 +3489,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09081816673278809</v>
+        <v>0.0002421817779541016</v>
       </c>
       <c r="L8" s="2">
-        <v>0.003088460768971518</v>
+        <v>8.23589538392405E-06</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -3611,34 +3611,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2227543354034424</v>
+        <v>0.0004410976938682027</v>
       </c>
       <c r="L3" s="2">
-        <v>0.004880471835596945</v>
+        <v>9.664300664548406E-06</v>
       </c>
       <c r="M3" s="2">
         <v>279</v>
@@ -3649,34 +3649,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>97.26755218216319</v>
+        <v>0.9726755218216319</v>
       </c>
       <c r="D4" s="2">
-        <v>6.109939065654078</v>
+        <v>0.06109939065654078</v>
       </c>
       <c r="E4" s="2">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="F4" s="2">
-        <v>97.5</v>
+        <v>0.05590169943749474</v>
       </c>
       <c r="G4" s="2">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="2">
-        <v>97</v>
+        <v>0.06708203932499369</v>
       </c>
       <c r="I4" s="2">
-        <v>98.23529411764707</v>
+        <v>0.9823529411764707</v>
       </c>
       <c r="J4" s="2">
-        <v>3.946002313234929</v>
+        <v>0.03946002313234929</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7496890068054199</v>
+        <v>0.001484532686743406</v>
       </c>
       <c r="L4" s="2">
-        <v>0.00417682768381972</v>
+        <v>8.270945908553901E-06</v>
       </c>
       <c r="M4" s="2">
         <v>79</v>
@@ -3687,34 +3687,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>95.75313575313575</v>
+        <v>0.9575313575313575</v>
       </c>
       <c r="D5" s="2">
-        <v>4.599131508143698</v>
+        <v>0.04599131508143697</v>
       </c>
       <c r="E5" s="2">
-        <v>96.66666666666669</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="F5" s="2">
-        <v>96.66666666666669</v>
+        <v>0.03486083443891982</v>
       </c>
       <c r="G5" s="2">
-        <v>97.14181286549707</v>
+        <v>0.9714181286549708</v>
       </c>
       <c r="H5" s="2">
-        <v>97.14181286549707</v>
+        <v>0.02899707395947761</v>
       </c>
       <c r="I5" s="2">
-        <v>95.12605042016806</v>
+        <v>0.9512605042016806</v>
       </c>
       <c r="J5" s="2">
-        <v>6.020291465405743</v>
+        <v>0.06020291465405742</v>
       </c>
       <c r="K5" s="2">
-        <v>0.208604907989502</v>
+        <v>0.000413079025721786</v>
       </c>
       <c r="L5" s="2">
-        <v>0.04787674275638912</v>
+        <v>9.480543120077055E-05</v>
       </c>
       <c r="M5" s="2">
         <v>51</v>
@@ -3725,34 +3725,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>41.46341463414635</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="D6" s="2">
-        <v>6.206335383118182E-15</v>
+        <v>6.206335383118183E-17</v>
       </c>
       <c r="E6" s="2">
-        <v>70.83333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F6" s="2">
-        <v>70.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>35.41666666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="H6" s="2">
-        <v>35.41666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5504067897796631</v>
+        <v>0.001089914435207254</v>
       </c>
       <c r="L6" s="2">
-        <v>0.8555525651503426</v>
+        <v>0.001694163495347213</v>
       </c>
       <c r="M6" s="2">
         <v>363</v>
@@ -3763,34 +3763,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>82.34945582314003</v>
+        <v>0.8234945582314003</v>
       </c>
       <c r="D7" s="2">
-        <v>13.09339478463351</v>
+        <v>0.1309339478463351</v>
       </c>
       <c r="E7" s="2">
-        <v>88.33333333333334</v>
+        <v>0.8833333333333334</v>
       </c>
       <c r="F7" s="2">
-        <v>88.33333333333334</v>
+        <v>0.08014743359029727</v>
       </c>
       <c r="G7" s="2">
-        <v>93.26987924356345</v>
+        <v>0.9326987924356345</v>
       </c>
       <c r="H7" s="2">
-        <v>93.26987924356345</v>
+        <v>0.04396401462975268</v>
       </c>
       <c r="I7" s="2">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="2">
-        <v>13.73956004405096</v>
+        <v>0.1373956004405096</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1241810321807861</v>
+        <v>0.0002459030340213587</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03346498007677101</v>
+        <v>6.626728728073468E-05</v>
       </c>
       <c r="M7" s="2">
         <v>2391</v>
@@ -3801,34 +3801,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>98.94505494505495</v>
+        <v>0.9894505494505494</v>
       </c>
       <c r="D8" s="2">
-        <v>2.358928855384395</v>
+        <v>0.02358928855384395</v>
       </c>
       <c r="E8" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F8" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G8" s="2">
-        <v>99.44444444444444</v>
+        <v>0.9944444444444445</v>
       </c>
       <c r="H8" s="2">
-        <v>99.44444444444444</v>
+        <v>0.01242259987499884</v>
       </c>
       <c r="I8" s="2">
-        <v>98.57142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="J8" s="2">
-        <v>3.194382824999698</v>
+        <v>0.03194382824999698</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09581408500671387</v>
+        <v>0.0001897308613994334</v>
       </c>
       <c r="L8" s="2">
-        <v>0.005935433753212507</v>
+        <v>1.175333416477724E-05</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
@@ -3923,34 +3923,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>83.5903355903356</v>
+        <v>0.835903355903356</v>
       </c>
       <c r="D3" s="2">
-        <v>9.934639198155775</v>
+        <v>0.09934639198155776</v>
       </c>
       <c r="E3" s="2">
-        <v>84.16666666666666</v>
+        <v>0.8416666666666666</v>
       </c>
       <c r="F3" s="2">
-        <v>84.16666666666666</v>
+        <v>0.0994778032192777</v>
       </c>
       <c r="G3" s="2">
-        <v>86.35531135531134</v>
+        <v>0.8635531135531135</v>
       </c>
       <c r="H3" s="2">
-        <v>86.35531135531134</v>
+        <v>0.09184027538008002</v>
       </c>
       <c r="I3" s="2">
-        <v>86.66666666666666</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="J3" s="2">
-        <v>7.561954755367307</v>
+        <v>0.07561954755367307</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2160247325897217</v>
+        <v>0.0005760659535725912</v>
       </c>
       <c r="L3" s="2">
-        <v>0.002478738004296641</v>
+        <v>6.609968011457711E-06</v>
       </c>
       <c r="M3" s="2">
         <v>64</v>
@@ -3961,34 +3961,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>75.38461538461539</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="D4" s="2">
-        <v>33.70600353877946</v>
+        <v>0.3370600353877946</v>
       </c>
       <c r="E4" s="2">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="F4" s="2">
-        <v>85</v>
+        <v>0.2053959590644373</v>
       </c>
       <c r="G4" s="2">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
       <c r="H4" s="2">
-        <v>72.5</v>
+        <v>0.3765592582848017</v>
       </c>
       <c r="I4" s="2">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="2">
-        <v>27.3861278752583</v>
+        <v>0.273861278752583</v>
       </c>
       <c r="K4" s="2">
-        <v>0.7401085376739502</v>
+        <v>0.001973622767130534</v>
       </c>
       <c r="L4" s="2">
-        <v>0.004062540335822617</v>
+        <v>1.083344089552698E-05</v>
       </c>
       <c r="M4" s="2">
         <v>242</v>
@@ -3999,34 +3999,34 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>99.03030303030303</v>
+        <v>0.9903030303030302</v>
       </c>
       <c r="D5" s="2">
-        <v>2.168308341817972</v>
+        <v>0.02168308341817972</v>
       </c>
       <c r="E5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.9916666666666668</v>
       </c>
       <c r="F5" s="2">
-        <v>99.16666666666669</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="G5" s="2">
-        <v>99.41176470588235</v>
+        <v>0.9941176470588236</v>
       </c>
       <c r="H5" s="2">
-        <v>99.41176470588235</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="I5" s="2">
-        <v>98.75</v>
+        <v>0.9875</v>
       </c>
       <c r="J5" s="2">
-        <v>2.795084971874737</v>
+        <v>0.02795084971874737</v>
       </c>
       <c r="K5" s="2">
-        <v>0.2044824600219727</v>
+        <v>0.0005452865600585938</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0479330578936584</v>
+        <v>0.0001278214877164224</v>
       </c>
       <c r="M5" s="2">
         <v>59</v>
@@ -4037,34 +4037,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>39.38461538461539</v>
+        <v>0.3938461538461538</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8426500884694864</v>
+        <v>0.008426500884694864</v>
       </c>
       <c r="E6" s="2">
-        <v>64.99999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>64.99999999999999</v>
+        <v>0.0228217732293819</v>
       </c>
       <c r="G6" s="2">
-        <v>32.49999999999999</v>
+        <v>0.325</v>
       </c>
       <c r="H6" s="2">
-        <v>32.49999999999999</v>
+        <v>0.01141088661469095</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.960528564453125</v>
+        <v>0.002561409505208333</v>
       </c>
       <c r="L6" s="2">
-        <v>0.8112511777321502</v>
+        <v>0.0021633364739524</v>
       </c>
       <c r="M6" s="2">
         <v>596</v>
@@ -4075,34 +4075,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>91.65352294764058</v>
+        <v>0.9165352294764059</v>
       </c>
       <c r="D7" s="2">
-        <v>7.97148698515758</v>
+        <v>0.0797148698515758</v>
       </c>
       <c r="E7" s="2">
-        <v>93.33333333333333</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="F7" s="2">
-        <v>93.33333333333333</v>
+        <v>0.06319062870042959</v>
       </c>
       <c r="G7" s="2">
-        <v>95.73099415204676</v>
+        <v>0.9573099415204677</v>
       </c>
       <c r="H7" s="2">
-        <v>95.73099415204676</v>
+        <v>0.04012352255652504</v>
       </c>
       <c r="I7" s="2">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J7" s="2">
-        <v>9.478594305064437</v>
+        <v>0.09478594305064438</v>
       </c>
       <c r="K7" s="2">
-        <v>0.1235876083374023</v>
+        <v>0.0003295669555664062</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03841592762839823</v>
+        <v>0.0001024424736757286</v>
       </c>
       <c r="M7" s="2">
         <v>2395</v>
@@ -4113,34 +4113,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.09850802421569824</v>
+        <v>0.0002626880645751953</v>
       </c>
       <c r="L8" s="2">
-        <v>0.00714808034971091</v>
+        <v>1.906154759922909E-05</v>
       </c>
       <c r="M8" s="2">
         <v>999</v>
